--- a/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H2">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N2">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O2">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P2">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q2">
-        <v>363.9015535161394</v>
+        <v>916.1679758943617</v>
       </c>
       <c r="R2">
-        <v>363.9015535161394</v>
+        <v>8245.511783049256</v>
       </c>
       <c r="S2">
-        <v>0.04224704393965618</v>
+        <v>0.07426809619745973</v>
       </c>
       <c r="T2">
-        <v>0.04224704393965618</v>
+        <v>0.07426809619745975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H3">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N3">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P3">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q3">
-        <v>98.27868180272183</v>
+        <v>158.9923681795973</v>
       </c>
       <c r="R3">
-        <v>98.27868180272183</v>
+        <v>1430.931313616376</v>
       </c>
       <c r="S3">
-        <v>0.0114096346891988</v>
+        <v>0.01288853224005921</v>
       </c>
       <c r="T3">
-        <v>0.0114096346891988</v>
+        <v>0.01288853224005921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H4">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N4">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O4">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P4">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q4">
-        <v>598.5608717833974</v>
+        <v>1055.986569059231</v>
       </c>
       <c r="R4">
-        <v>598.5608717833974</v>
+        <v>9503.879121533082</v>
       </c>
       <c r="S4">
-        <v>0.0694897485500033</v>
+        <v>0.0856023285659565</v>
       </c>
       <c r="T4">
-        <v>0.0694897485500033</v>
+        <v>0.0856023285659565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H5">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N5">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O5">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P5">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q5">
-        <v>67.79129887936841</v>
+        <v>133.9377263321717</v>
       </c>
       <c r="R5">
-        <v>67.79129887936841</v>
+        <v>1205.439536989545</v>
       </c>
       <c r="S5">
-        <v>0.007870210926032833</v>
+        <v>0.01085750670775872</v>
       </c>
       <c r="T5">
-        <v>0.007870210926032833</v>
+        <v>0.01085750670775872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H6">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N6">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O6">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P6">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q6">
-        <v>1669.849010671187</v>
+        <v>2658.268923391897</v>
       </c>
       <c r="R6">
-        <v>1669.849010671187</v>
+        <v>23924.42031052707</v>
       </c>
       <c r="S6">
-        <v>0.1938606302852408</v>
+        <v>0.2154894924464715</v>
       </c>
       <c r="T6">
-        <v>0.1938606302852408</v>
+        <v>0.2154894924464715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H7">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N7">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P7">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q7">
-        <v>450.9751552106661</v>
+        <v>461.3176650010293</v>
       </c>
       <c r="R7">
-        <v>450.9751552106661</v>
+        <v>4151.858985009264</v>
       </c>
       <c r="S7">
-        <v>0.05235582814579352</v>
+        <v>0.03739618238504597</v>
       </c>
       <c r="T7">
-        <v>0.05235582814579352</v>
+        <v>0.03739618238504597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H8">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N8">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O8">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P8">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q8">
-        <v>2746.639221285051</v>
+        <v>3063.953722360905</v>
       </c>
       <c r="R8">
-        <v>2746.639221285051</v>
+        <v>27575.58350124815</v>
       </c>
       <c r="S8">
-        <v>0.3188702734209851</v>
+        <v>0.2483758609601331</v>
       </c>
       <c r="T8">
-        <v>0.3188702734209851</v>
+        <v>0.2483758609601331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H9">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N9">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O9">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P9">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q9">
-        <v>311.0765322984738</v>
+        <v>388.6214154462368</v>
       </c>
       <c r="R9">
-        <v>311.0765322984738</v>
+        <v>3497.592739016131</v>
       </c>
       <c r="S9">
-        <v>0.03611433862160369</v>
+        <v>0.0315031450849162</v>
       </c>
       <c r="T9">
-        <v>0.03611433862160369</v>
+        <v>0.03150314508491619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H10">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N10">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O10">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P10">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q10">
-        <v>551.0489618577891</v>
+        <v>1031.159471476438</v>
       </c>
       <c r="R10">
-        <v>551.0489618577891</v>
+        <v>9280.43524328794</v>
       </c>
       <c r="S10">
-        <v>0.06397386732638788</v>
+        <v>0.08358974864601042</v>
       </c>
       <c r="T10">
-        <v>0.06397386732638788</v>
+        <v>0.08358974864601042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H11">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N11">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P11">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q11">
-        <v>148.8214739862053</v>
+        <v>178.9480648249209</v>
       </c>
       <c r="R11">
-        <v>148.8214739862053</v>
+        <v>1610.532583424288</v>
       </c>
       <c r="S11">
-        <v>0.01727738529805636</v>
+        <v>0.0145062176832722</v>
       </c>
       <c r="T11">
-        <v>0.01727738529805636</v>
+        <v>0.0145062176832722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H12">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N12">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O12">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P12">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q12">
-        <v>906.3889500276774</v>
+        <v>1188.527192706513</v>
       </c>
       <c r="R12">
-        <v>906.3889500276774</v>
+        <v>10696.74473435862</v>
       </c>
       <c r="S12">
-        <v>0.1052269588525948</v>
+        <v>0.09634658076217451</v>
       </c>
       <c r="T12">
-        <v>0.1052269588525948</v>
+        <v>0.09634658076217451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H13">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N13">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O13">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P13">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q13">
-        <v>102.6550299374038</v>
+        <v>150.7487259207178</v>
       </c>
       <c r="R13">
-        <v>102.6550299374038</v>
+        <v>1356.73853328646</v>
       </c>
       <c r="S13">
-        <v>0.0119177055401053</v>
+        <v>0.0122202709250943</v>
       </c>
       <c r="T13">
-        <v>0.0119177055401053</v>
+        <v>0.0122202709250943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H14">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N14">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O14">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P14">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q14">
-        <v>192.7221595960779</v>
+        <v>383.9778611818872</v>
       </c>
       <c r="R14">
-        <v>192.7221595960779</v>
+        <v>3455.800750636985</v>
       </c>
       <c r="S14">
-        <v>0.02237402249572927</v>
+        <v>0.03112672073493149</v>
       </c>
       <c r="T14">
-        <v>0.02237402249572927</v>
+        <v>0.03112672073493149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H15">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N15">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O15">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P15">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q15">
-        <v>52.04836202612221</v>
+        <v>66.63576012711911</v>
       </c>
       <c r="R15">
-        <v>52.04836202612221</v>
+        <v>599.721841144072</v>
       </c>
       <c r="S15">
-        <v>0.006042539297395976</v>
+        <v>0.005401750741702814</v>
       </c>
       <c r="T15">
-        <v>0.006042539297395976</v>
+        <v>0.005401750741702813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H16">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N16">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O16">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P16">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q16">
-        <v>316.9976680374112</v>
+        <v>442.5776439395171</v>
       </c>
       <c r="R16">
-        <v>316.9976680374112</v>
+        <v>3983.198795455654</v>
       </c>
       <c r="S16">
-        <v>0.03680175113556117</v>
+        <v>0.0358770442754868</v>
       </c>
       <c r="T16">
-        <v>0.03680175113556117</v>
+        <v>0.0358770442754868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H17">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N17">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O17">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P17">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q17">
-        <v>35.90225267140997</v>
+        <v>56.13503532295724</v>
       </c>
       <c r="R17">
-        <v>35.90225267140997</v>
+        <v>505.2153179066151</v>
       </c>
       <c r="S17">
-        <v>0.004168061475655188</v>
+        <v>0.004550521643526533</v>
       </c>
       <c r="T17">
-        <v>0.004168061475655188</v>
+        <v>0.004550521643526532</v>
       </c>
     </row>
   </sheetData>
